--- a/data/variable_lexicon.xlsx
+++ b/data/variable_lexicon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="172">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -509,6 +509,33 @@
   </si>
   <si>
     <t xml:space="preserve">pg/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDH_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate dehydrogenase, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDH strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha fetoprotein, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG strata</t>
   </si>
 </sst>
 </file>
@@ -622,13 +649,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.07"/>
@@ -1366,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,6 +1622,66 @@
         <v>24</v>
       </c>
       <c r="G45" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>106</v>
       </c>
     </row>

--- a/data/variable_lexicon.xlsx
+++ b/data/variable_lexicon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="187">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -70,6 +70,276 @@
     <t xml:space="preserve">demography</t>
   </si>
   <si>
+    <t xml:space="preserve">age_surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age at surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body mass index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body_mass_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body mass class as defined by BMI cutoffs with 25 and 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body weight class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMI class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_size_cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximal tumor size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt_stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumor stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs_lugano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugano classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugano class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Lugano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGCCCG_risk_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGCCCG risk group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGCCCG risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGCCCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infiltration_rete_testis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invasion of tumor into the rete testis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rete testis invaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lymphovas_invasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphovascular invasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teratoma_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of teratoma histology of a mixed-histology tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teratoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embryonal_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of embroyonal cancer within a mixed-histology tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embyonal cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chorion_ca_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of chorion cancer within a mixed-histology tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorion cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yolk_sac_ca_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of yolk sac cancer within a mixed-histology tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolk sac cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YSCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seminoma_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of seminoma within a mixed histology tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SemiCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teratoma_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predominantly teratoma with &gt;= 75% of teratoma histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teratoma &gt;= 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly teratoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embryonal_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predominantly embryonal cancer with &gt;= 75% of embryonic histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embryonic cancer &gt;= 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly ECa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chorion_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predominantly chorion cancer with &gt;= 75% of chorion carcinoma histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorion cancer &gt;= 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly ChCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yolk_sac_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predominantly yolk sac cancer with &gt;= 75% of yolk sac histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolk sac cancer &gt;= 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly YSCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seminoma_cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predominantly seminoma with &gt;= 75% histology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminoma &gt;= 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly SemiCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha-1-fetoprotein, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha fetoprotein, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate dehydrogenase, blood activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDH_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate dehydrogenase, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDH strata</t>
+  </si>
+  <si>
     <t xml:space="preserve">surgery_date</t>
   </si>
   <si>
@@ -82,21 +352,6 @@
     <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">age_surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age at surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">surgery_type</t>
   </si>
   <si>
@@ -106,40 +361,10 @@
     <t xml:space="preserve">Type of surgery</t>
   </si>
   <si>
-    <t xml:space="preserve">factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body mass index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg/m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body_mass_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body mass class as defined by BMI cutoffs with 25 and 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body weight class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pathology</t>
+    <t xml:space="preserve">RLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retroperitoneal lymphadenectomy</t>
   </si>
   <si>
     <t xml:space="preserve">residual_tumor</t>
@@ -148,187 +373,148 @@
     <t xml:space="preserve">Residual tumor</t>
   </si>
   <si>
-    <t xml:space="preserve">max_size_cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximal tumor size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infiltration_rete_testis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invasion of tumor into the rete testis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rete testis invaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphovas_invasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphovascular invasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs_lugano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugano classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugano class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS Lugano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGCCCG_risk_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGCCCG risk group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGCCCG risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGCCCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teratoma_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of teratoma histology of a mixed-histology tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teratoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embryonal_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of embroyonal cancer within a mixed-histology tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embyonal cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chorion_ca_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of chorion cancer within a mixed-histology tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chorion cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yolk_sac_ca_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of yolk sac cancer within a mixed-histology tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolk sac cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YSCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seminoma_percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of seminoma within a mixed histology tumor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SemiCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teratoma_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominantly teratoma with &gt;= 75% of teratoma histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teratoma &gt;= 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly teratoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">embryonal_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominantly embryonal cancer with &gt;= 75% of embryonic histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embryonic cancer &gt;= 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly ECa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chorion_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominantly chorion cancer with &gt;= 75% of chorion carcinoma histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chorion cancer &gt;= 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly ChCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yolk_sac_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominantly yolk sac cancer with &gt;= 75% of yolk sac histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolk sac cancer &gt;= 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly YSCa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seminoma_cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predominantly seminoma with &gt;= 75% histology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminoma &gt;= 75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainly SemiCa</t>
+    <t xml:space="preserve">chemotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radiotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testosterone_replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testosterone replacement therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testosterone replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total testosterone, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total testosterone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hormones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_total_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total testosterone, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T total strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free testosterone, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free testosterone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estradiol, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estradiol, blood concentration class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2 strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex hormone binding globulin, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmol/L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolactin, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µU/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRL_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolactin, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRL strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU/L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follicle-stimulating hormone, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mU/mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSH_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follicle-stimulating hormone, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSH strata</t>
   </si>
   <si>
     <t xml:space="preserve">LH</t>
@@ -337,106 +523,13 @@
     <t xml:space="preserve">Luteinizing hormone, blood concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">mU/mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hormones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follicle-stimulating hormone, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolactin, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µU/mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total testosterone, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total testosterone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng/mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free testosterone, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free testosterone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex hormone binding globulin, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nmol/L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU/L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha-1-fetoprotein, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactate dehydrogenase, blood activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radiotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retroperitoneal lymphadenectomy</t>
+    <t xml:space="preserve">LH_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luteinizing hormone, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH strata</t>
   </si>
   <si>
     <t xml:space="preserve">fup_date</t>
@@ -488,54 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date of relapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testosterone_replacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testosterone replacement therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testosterone replacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T replacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estradiol, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pg/mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDH_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactate dehydrogenase, blood concentration strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDH strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFP_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha fetoprotein, blood concentration strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFP strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCG_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCG strata</t>
   </si>
 </sst>
 </file>
@@ -649,13 +694,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.07"/>
@@ -736,36 +781,39 @@
         <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
@@ -782,56 +830,56 @@
         <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,374 +890,377 @@
         <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="E14" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="F14" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="F24" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>102</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,211 +1271,187 @@
         <v>104</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="0" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="0" t="s">
         <v>116</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>129</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>133</v>
@@ -1433,10 +1460,10 @@
         <v>133</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,53 +1477,59 @@
         <v>136</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>138</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,59 +1540,62 @@
         <v>145</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,16 +1606,19 @@
         <v>154</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,98 +1632,221 @@
         <v>158</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>162</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
+      <c r="C49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/variable_lexicon.xlsx
+++ b/data/variable_lexicon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">teratoma_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of teratoma histology of a mixed-histology tumor</t>
+    <t xml:space="preserve">Percentage of teratoma histology</t>
   </si>
   <si>
     <t xml:space="preserve">Teratoma</t>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">embryonal_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of embroyonal cancer within a mixed-histology tumor</t>
+    <t xml:space="preserve">Percentage of embroyonal cancer histology</t>
   </si>
   <si>
     <t xml:space="preserve">Embyonal cancer</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">chorion_ca_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of chorion cancer within a mixed-histology tumor</t>
+    <t xml:space="preserve">Percentage of chorion cancer histology</t>
   </si>
   <si>
     <t xml:space="preserve">Chorion cancer</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">yolk_sac_ca_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of yolk sac cancer within a mixed-histology tumor</t>
+    <t xml:space="preserve">Percentage of yolk sac cancer histology</t>
   </si>
   <si>
     <t xml:space="preserve">Yolk sac cancer</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">seminoma_percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of seminoma within a mixed histology tumor</t>
+    <t xml:space="preserve">Percentage of seminoma histology</t>
   </si>
   <si>
     <t xml:space="preserve">Seminoma</t>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t xml:space="preserve">Date of relapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP and HCG status: negative for both markers or positive for at least one of them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marker status</t>
   </si>
 </sst>
 </file>
@@ -696,11 +705,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.07"/>
@@ -1618,7 +1627,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1647,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,6 +1837,26 @@
       </c>
       <c r="G53" s="0" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/variable_lexicon.xlsx
+++ b/data/variable_lexicon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="191">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -322,6 +322,24 @@
     <t xml:space="preserve">AFP strata</t>
   </si>
   <si>
+    <t xml:space="preserve">HCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU/L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCG strata</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDH</t>
   </si>
   <si>
@@ -340,6 +358,15 @@
     <t xml:space="preserve">LDH strata</t>
   </si>
   <si>
+    <t xml:space="preserve">marker_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFP and HCG status: negative for both markers or positive for at least one of them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marker status</t>
+  </si>
+  <si>
     <t xml:space="preserve">surgery_date</t>
   </si>
   <si>
@@ -421,6 +448,9 @@
     <t xml:space="preserve">Total testosterone, blood concentration strata</t>
   </si>
   <si>
+    <t xml:space="preserve">Total testosterone strata</t>
+  </si>
+  <si>
     <t xml:space="preserve">T total strata</t>
   </si>
   <si>
@@ -481,24 +511,6 @@
     <t xml:space="preserve">PRL strata</t>
   </si>
   <si>
-    <t xml:space="preserve">HCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU/L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCG_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human chorionic gonadotropin, blood concentration strata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCG strata</t>
-  </si>
-  <si>
     <t xml:space="preserve">FSH</t>
   </si>
   <si>
@@ -581,15 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date of relapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marker_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFP and HCG status: negative for both markers or positive for at least one of them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marker status</t>
   </si>
 </sst>
 </file>
@@ -705,11 +708,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G55" activeCellId="0" sqref="G55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.07"/>
@@ -1262,7 +1265,7 @@
       <c r="D26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F26" s="0" t="s">
@@ -1300,56 +1303,59 @@
         <v>107</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,67 +1366,67 @@
         <v>116</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>125</v>
@@ -1429,7 +1435,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,96 +1446,90 @@
         <v>127</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>138</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>143</v>
@@ -1538,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,179 +1549,179 @@
         <v>145</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="D43" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="D44" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>169</v>
@@ -1729,102 +1729,105 @@
       <c r="D48" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="E48" s="0" t="s">
+        <v>165</v>
+      </c>
       <c r="F48" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>173</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="D50" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="F50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>182</v>
       </c>
+      <c r="E51" s="0" t="s">
+        <v>183</v>
+      </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>186</v>
@@ -1833,33 +1836,32 @@
         <v>186</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>178</v>
+      </c>
+    </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
